--- a/MIDI_learning/learning_data.xlsx
+++ b/MIDI_learning/learning_data.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,107 +422,107 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>FileName</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>IsUserCorrected</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>CorrectionCount</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>GT_root</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>GT_scale</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>GT_chord</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>GT_time_signature</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>GT_groove</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>GT_style</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>AI_root</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>AI_scale</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>AI_chord</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>AI_time_signature</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>AI_groove</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>AI_style</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>FEAT_poly_ratio</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>FEAT_is_octave</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>FEAT_avg_duration</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>FEAT_avg_interval</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>FEAT_is_walking</t>
         </is>
@@ -808,6 +796,1066 @@
       <c r="U4" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Slap Bass.mid</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-01-23 02:01:02</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A#</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>minor</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>OctJump</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>A#</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>A#m7</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Shuffle</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Arp</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bass_E1_4.4_8beat_001.mid</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-01-23 02:05:16</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bass_E1_4.4_8beat_002.mid</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-01-23 02:06:07</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bass.mid</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-01-23 02:20:51</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Syncopation</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bass.mid</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-01-23 02:22:43</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Syncopation</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bass.mid</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-23 02:27:48</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Syncopation</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bass.mid</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-23 02:35:16</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>minor</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Swing</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Slap</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Swing</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Arp</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AcGuitar.mid</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-23 02:58:38</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>minor</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Arp</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Chord</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Bass.mid</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:03:55</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bass_E1_4.4_8beat_002.mid</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:07:18</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AcGuitar.mid</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:10:46</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Arp</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Chord</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AcGuitar.mid</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:11:44</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>m7</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Arp</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Chord</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MIDI_learning/learning_data.xlsx
+++ b/MIDI_learning/learning_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="b">
+      <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
@@ -693,7 +693,7 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="b">
+      <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
@@ -784,7 +784,7 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="b">
+      <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
@@ -877,7 +877,7 @@
       <c r="Q5" t="n">
         <v>0.18</v>
       </c>
-      <c r="R5" t="b">
+      <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
@@ -960,7 +960,7 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="b">
+      <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
@@ -1045,7 +1045,7 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="b">
+      <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
@@ -1134,7 +1134,7 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="b">
+      <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
@@ -1223,7 +1223,7 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="b">
+      <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
@@ -1312,7 +1312,7 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="b">
+      <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
@@ -1405,7 +1405,7 @@
       <c r="Q11" t="n">
         <v>0.1</v>
       </c>
-      <c r="R11" t="b">
+      <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
@@ -1496,7 +1496,7 @@
       <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R12" t="b">
+      <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
@@ -1577,7 +1577,7 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="b">
+      <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
@@ -1666,7 +1666,7 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="b">
+      <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
@@ -1759,7 +1759,7 @@
       <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R15" t="b">
+      <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
@@ -1848,7 +1848,7 @@
       <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R16" t="b">
+      <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
@@ -1856,6 +1856,537 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bass_E1_4.4_8beat_002.mid</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:31:02</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bass_E1_8beat_Syncopation002.mid</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:32:35</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Syncopation</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Drums_16beat_001.mid</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:34:20</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Drums_16beat_002.mid</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:34:46</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Drums_16beat_003.mid</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:35:09</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bass_F1_8beat_Syncopation.mid</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:35:36</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Syncopation</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Figuration</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Bass_Em7_16beat_Swing_Arp.mid</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-23 03:36:08</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>minor</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Swing</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Octjump</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Swing</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Arp</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T23" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="U23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MIDI_learning/learning_data.xlsx
+++ b/MIDI_learning/learning_data.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,107 +434,107 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>FileName</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>IsUserCorrected</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CorrectionCount</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>GT_root</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>GT_scale</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>GT_chord</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>GT_time_signature</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>GT_groove</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>GT_style</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>AI_root</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AI_scale</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AI_chord</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>AI_time_signature</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>AI_groove</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>AI_style</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>FEAT_poly_ratio</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>FEAT_is_octave</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>FEAT_avg_duration</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>FEAT_avg_interval</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>FEAT_is_walking</t>
         </is>
@@ -2388,6 +2400,246 @@
       </c>
       <c r="U23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hihat_16beat.mid</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-23 10:44:44</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hihat_16beat_001.mid</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-23 12:28:38</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hihat_16beat_002.mid</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-23 12:45:58</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HihatClose_16beat_003.mid</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-23 12:48:44</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MIDI_learning/learning_data.xlsx
+++ b/MIDI_learning/learning_data.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,109 +422,119 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>FileName</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>IsUserCorrected</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>CorrectionCount</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>GT_root</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>GT_scale</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>GT_chord</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>GT_time_signature</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>GT_groove</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>GT_style</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>AI_root</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>AI_scale</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>AI_chord</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>AI_time_signature</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>AI_groove</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>AI_style</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>FEAT_poly_ratio</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>FEAT_is_octave</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>FEAT_avg_duration</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>FEAT_avg_interval</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>FEAT_is_walking</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>GT_beat_type</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>AI_beat_type</t>
         </is>
       </c>
     </row>
@@ -628,6 +626,8 @@
       <c r="U2" t="n">
         <v>0</v>
       </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -715,6 +715,8 @@
         <v>5.33</v>
       </c>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -808,6 +810,8 @@
       <c r="U4" t="n">
         <v>0</v>
       </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -899,6 +903,8 @@
         <v>4.24</v>
       </c>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -984,6 +990,8 @@
       <c r="U6" t="n">
         <v>0</v>
       </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1069,6 +1077,8 @@
       <c r="U7" t="n">
         <v>0</v>
       </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1158,6 +1168,8 @@
       <c r="U8" t="n">
         <v>0</v>
       </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1247,6 +1259,8 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1336,6 +1350,8 @@
       <c r="U10" t="n">
         <v>0</v>
       </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1427,6 +1443,8 @@
         <v>6.05</v>
       </c>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1516,6 +1534,8 @@
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1601,6 +1621,8 @@
       <c r="U13" t="n">
         <v>0</v>
       </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1690,6 +1712,8 @@
       <c r="U14" t="n">
         <v>0</v>
       </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1779,6 +1803,8 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1868,6 +1894,8 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1953,6 +1981,8 @@
       <c r="U17" t="n">
         <v>0</v>
       </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2042,6 +2072,8 @@
       <c r="U18" t="n">
         <v>0</v>
       </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2101,6 +2133,8 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2160,6 +2194,8 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2219,6 +2255,8 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2308,6 +2346,8 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2399,6 +2439,8 @@
         <v>6.05</v>
       </c>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2458,6 +2500,8 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2517,6 +2561,8 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2576,6 +2622,8 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2604,11 +2652,7 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>4/4</t>
@@ -2639,6 +2683,2020 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Drums_16beea_8th_Hat_Both_Multi.mid</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:16:47</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Swing</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Cdim</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Swing</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Chord_Figuration</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Drums_8beat_8th_Hat_Closed.mid</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:17:43</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Fs</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Cdim</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Swing</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Chord_Figuration</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Drums_8beat_8tth_Hat_Both.mid</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:22:20</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Drums_8beat_8tth_Hat_Both2.mid</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:23:17</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Drums_8beat_8tth_Hat_Both3.mid</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:24:07</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Drums_8beat_8tth_Hat_Closed2.mid</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:25:28</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Drums_8beat_8tth_Hat_OpenCym.mid</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:26:47</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Drums_8beat_8tth_Hat_BothMujlti.mid</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-24 00:28:09</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Drums_16beat_4tht_Hat_Open.mid</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:04:35</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Drums_16beat_4tht_Hat_Cym.mid</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:08:27</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Drums_8beat_BD_Ride1.mid</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:10:00</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Drums_8beat_BD_Ride2.mid</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:10:43</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Drums_8beat_BD_Ride3.mid</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:11:25</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Drums_8beat_BD_Ride4.mid</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:12:04</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Drum_16beat_Fill01.mid</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:26:52</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Durms_8beat_Hat Closed3.mid</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:28:38</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Durms_8beat_Hat Closed4.mid</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:29:57</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Durms_8beat_Hat Closed5.mid</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:30:31</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Durms_8beat_Hat Both4.mid</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:31:38</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Durms_8beat_Hat Both5.mid</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:32:51</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Durms_8beat_Hat Both6.mid</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:38:07</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>UnKnown</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>8beat</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>8beat</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Durms_8beat_Hat Both6.mid</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:51:22</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Durms_8beat_Hat Both7.mid</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:52:13</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Drums_8beat_Hat_OpenCym2.mid</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:52:56</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Drums_8beat_Hat_OpenCym3.mid</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:53:34</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Drums_16beat_Hat_Closed1.mid</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-01-24 01:58:38</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Drums_16beat_Hat_Both1.mid</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-24 02:00:15</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Drums_16beat_Hat_Closed2.mid</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026-01-24 02:10:00</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Drums_8beat_Combi_Standard01.mid</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-01-24 02:15:48</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Drums_8beat_Combi_Standard02.mid</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-24 02:22:02</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DistGtr.mid</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-24 02:28:29</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>DistGtr.mid</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2026-01-24 02:33:15</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>m7</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Straight</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
